--- a/acordes.xlsx
+++ b/acordes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76B4EF-C5BA-4CFA-9C8C-75020BB7ABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE230C6-AFF9-41B7-BED5-06A73EAFB748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="19" xr2:uid="{5A1E2F81-67A4-4471-9F37-42CE08049F4C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="32475" windowHeight="20985" firstSheet="1" activeTab="20" xr2:uid="{5A1E2F81-67A4-4471-9F37-42CE08049F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Sim" sheetId="18" r:id="rId18"/>
     <sheet name="Si7" sheetId="19" r:id="rId19"/>
     <sheet name="Sol# dim7" sheetId="20" r:id="rId20"/>
+    <sheet name="Sol# dim7 (2)" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="28">
   <si>
     <t>e</t>
   </si>
@@ -241,6 +242,9 @@
   </si>
   <si>
     <t>Sol# dim7</t>
+  </si>
+  <si>
+    <t>Sol7</t>
   </si>
 </sst>
 </file>
@@ -511,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,12 +552,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,8 +567,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -578,14 +579,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6868,67 +6869,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>79804</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>393099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22397</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0949B258-D755-85D5-D360-1FB1BB7E4658}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="803189" y="365554"/>
-          <a:ext cx="5526302" cy="2135917"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8621,6 +8561,548 @@
         <a:xfrm>
           <a:off x="848442" y="562248"/>
           <a:ext cx="288000" cy="288363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425092</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3730D1-3C51-44BE-9877-D824CCC79D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4001581" y="751456"/>
+          <a:ext cx="283832" cy="292748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>362826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372352</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F7442A-9781-4069-8E6C-9AE05E46FBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2067801" y="332740"/>
+          <a:ext cx="9526" cy="2574181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>384925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B1A809-8F2E-4694-AC0E-BB869586B56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3490074" y="307340"/>
+          <a:ext cx="9526" cy="2569101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372602</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>382128</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DF5B5F-2AFC-4AEC-8526-3F9229AA9695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782427" y="381000"/>
+          <a:ext cx="9526" cy="2569101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277044</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>286570</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0931D48D-DF84-409E-980C-912628A571EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4137365" y="381000"/>
+          <a:ext cx="9526" cy="2583658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130667</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDBE7AA-9CB1-4153-B530-328AAEBF5AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2934930"/>
+          <a:ext cx="130667" cy="1839568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137135</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419182</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC21E3C-EC1A-4D0D-B78E-2351B63BA460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4568956" y="406102"/>
+          <a:ext cx="282047" cy="289985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>86524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44ABA9A-CE64-4727-B39A-C163F6F33D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="0"/>
+          <a:ext cx="269404" cy="294803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174642</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AFFAEA-E3DE-4C50-878A-93FD5211F768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="438745"/>
+          <a:ext cx="123842" cy="1782242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351396</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360922</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60C5107-43F1-4BDD-9B91-1F309B60873F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1354217" y="344170"/>
+          <a:ext cx="9526" cy="2588738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>282975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319CCEB2-18E9-4E65-5C29-B561E13985B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705270" y="276764"/>
+          <a:ext cx="9526" cy="2583658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F089F04-DCE6-4277-84CA-08AA2175D44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4568958" y="1096210"/>
+          <a:ext cx="283783" cy="288249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12205,10 +12687,10 @@
       <c r="B3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4"/>
@@ -12224,8 +12706,8 @@
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -12239,10 +12721,10 @@
     </row>
     <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
@@ -12258,8 +12740,8 @@
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -12273,10 +12755,10 @@
     </row>
     <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="7"/>
@@ -12292,8 +12774,8 @@
     </row>
     <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -12307,10 +12789,10 @@
     </row>
     <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11"/>
@@ -12326,8 +12808,8 @@
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -12341,10 +12823,10 @@
     </row>
     <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="13"/>
@@ -12360,8 +12842,8 @@
     </row>
     <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -12375,10 +12857,10 @@
     </row>
     <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
@@ -12394,36 +12876,36 @@
     </row>
     <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="27">
         <v>2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="27">
         <v>3</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="27">
         <v>4</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="27">
         <v>6</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="27">
         <v>7</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="27">
         <v>8</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="27">
         <v>9</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="27">
         <v>10</v>
       </c>
     </row>
@@ -12431,16 +12913,3250 @@
       <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E4147-AD0C-46DE-AA19-20548591CD55}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557062F0-7A2E-435A-A6EA-27D55BD091A9}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C8835-3459-4947-85AC-96D1109A8452}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9492F-88D3-49CF-BB51-4BEFA9C82175}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BBF29D-14F8-4673-A1FD-9A9FF606B199}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F90771-B560-44E9-857B-EA8FF680E9C0}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA3808F-61D8-4637-8CBC-D2A9A435E8C2}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE00324-7EA1-4FCD-A0B1-4EBC7C3937E2}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED00D95-120F-4D95-BD6D-007CAD232FAE}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12E441D-8609-4385-B19B-59506B0DCECF}">
+  <dimension ref="B4:K18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27">
+        <v>2</v>
+      </c>
+      <c r="G17" s="27">
+        <v>3</v>
+      </c>
+      <c r="H17" s="27">
+        <v>4</v>
+      </c>
+      <c r="I17" s="27">
+        <v>5</v>
+      </c>
+      <c r="J17" s="27">
+        <v>6</v>
+      </c>
+      <c r="K17" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5930034-495C-4EE2-8F6A-5AA1CDA3B44F}">
+  <dimension ref="B3:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27">
+        <v>9</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="19"/>
@@ -12479,12 +16195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E4147-AD0C-46DE-AA19-20548591CD55}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC5FA4B-DE83-4C79-89DD-470F2588C892}">
   <dimension ref="B3:N17"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12493,20 +16209,17 @@
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="14" width="10.5703125" customWidth="1"/>
+    <col min="5" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4"/>
@@ -12522,8 +16235,8 @@
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -12537,10 +16250,10 @@
     </row>
     <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
@@ -12556,2943 +16269,7 @@
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557062F0-7A2E-435A-A6EA-27D55BD091A9}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C8835-3459-4947-85AC-96D1109A8452}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9492F-88D3-49CF-BB51-4BEFA9C82175}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BBF29D-14F8-4673-A1FD-9A9FF606B199}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F90771-B560-44E9-857B-EA8FF680E9C0}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA3808F-61D8-4637-8CBC-D2A9A435E8C2}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE00324-7EA1-4FCD-A0B1-4EBC7C3937E2}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED00D95-120F-4D95-BD6D-007CAD232FAE}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7</v>
-      </c>
-      <c r="L14" s="22">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22">
-        <v>9</v>
-      </c>
-      <c r="N14" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12E441D-8609-4385-B19B-59506B0DCECF}">
-  <dimension ref="B4:K18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2</v>
-      </c>
-      <c r="G17" s="22">
-        <v>3</v>
-      </c>
-      <c r="H17" s="22">
-        <v>4</v>
-      </c>
-      <c r="I17" s="22">
-        <v>5</v>
-      </c>
-      <c r="J17" s="22">
-        <v>6</v>
-      </c>
-      <c r="K17" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5930034-495C-4EE2-8F6A-5AA1CDA3B44F}">
-  <dimension ref="B3:N17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="33"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
@@ -15507,7 +16284,7 @@
     </row>
     <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -15526,7 +16303,7 @@
     </row>
     <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="33"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
@@ -15541,7 +16318,7 @@
     </row>
     <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -15560,7 +16337,7 @@
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="33"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
@@ -15575,7 +16352,7 @@
     </row>
     <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -15594,7 +16371,7 @@
     </row>
     <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="33"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
@@ -15609,10 +16386,10 @@
     </row>
     <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
@@ -15628,36 +16405,36 @@
     </row>
     <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="27">
         <v>2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="27">
         <v>3</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="27">
         <v>4</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="27">
         <v>6</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="27">
         <v>7</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="27">
         <v>8</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="27">
         <v>9</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="27">
         <v>10</v>
       </c>
     </row>
@@ -15665,16 +16442,16 @@
       <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="19"/>
@@ -15755,13 +16532,13 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
@@ -15773,9 +16550,9 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -15785,11 +16562,11 @@
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="7"/>
@@ -15801,9 +16578,9 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -15813,11 +16590,11 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="7"/>
@@ -15829,9 +16606,9 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -15841,11 +16618,11 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="11"/>
@@ -15857,9 +16634,9 @@
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -15869,11 +16646,11 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="13"/>
@@ -15885,9 +16662,9 @@
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -15897,11 +16674,11 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="13"/>
@@ -15913,46 +16690,54 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:11" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="22">
+      <c r="B17" s="29"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="27">
         <v>1</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="27">
         <v>2</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="27">
         <v>3</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="27">
         <v>4</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="27">
         <v>5</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="27">
         <v>6</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="3"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -15965,14 +16750,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15999,13 +16776,13 @@
   <sheetData>
     <row r="4" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4"/>
@@ -16019,9 +16796,9 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16031,11 +16808,11 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7"/>
@@ -16047,9 +16824,9 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -16059,11 +16836,11 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="7"/>
@@ -16075,9 +16852,9 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -16087,11 +16864,11 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="11"/>
@@ -16103,9 +16880,9 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -16115,11 +16892,11 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="13"/>
@@ -16131,9 +16908,9 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -16143,11 +16920,11 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="13"/>
@@ -16159,46 +16936,54 @@
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="2:11" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="22">
+      <c r="B16" s="29"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="27">
         <v>1</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="27">
         <v>2</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="27">
         <v>3</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="27">
         <v>4</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="27">
         <v>5</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="27">
         <v>6</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
@@ -16211,14 +16996,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16244,13 +17021,13 @@
   <sheetData>
     <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4"/>
@@ -16263,9 +17040,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -16276,11 +17053,11 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="7"/>
@@ -16293,9 +17070,9 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -16306,11 +17083,11 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="7"/>
@@ -16323,9 +17100,9 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -16336,11 +17113,11 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="11"/>
@@ -16353,9 +17130,9 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -16366,11 +17143,11 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="13"/>
@@ -16383,9 +17160,9 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -16396,11 +17173,11 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13"/>
@@ -16413,46 +17190,46 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="22">
+      <c r="B15" s="29"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="27">
         <v>2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="27">
         <v>3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="27">
         <v>4</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="27">
         <v>6</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="27">
         <v>7</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
@@ -16462,6 +17239,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="B4:B16"/>
     <mergeCell ref="C4:C5"/>
@@ -16478,11 +17260,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16511,13 +17288,13 @@
   <sheetData>
     <row r="4" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4"/>
@@ -16531,9 +17308,9 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16543,11 +17320,11 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7"/>
@@ -16559,9 +17336,9 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -16571,11 +17348,11 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="7"/>
@@ -16587,9 +17364,9 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -16599,11 +17376,11 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="11"/>
@@ -16615,9 +17392,9 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -16627,11 +17404,11 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="13"/>
@@ -16643,9 +17420,9 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -16655,11 +17432,11 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="13"/>
@@ -16671,46 +17448,54 @@
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="2:11" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="22">
+      <c r="B16" s="29"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="27">
         <v>1</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="27">
         <v>2</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="27">
         <v>3</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="27">
         <v>4</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="27">
         <v>5</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="27">
         <v>6</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
@@ -16723,14 +17508,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16756,13 +17533,13 @@
   <sheetData>
     <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4"/>
@@ -16775,9 +17552,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -16788,11 +17565,11 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="7"/>
@@ -16805,9 +17582,9 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -16818,11 +17595,11 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="7"/>
@@ -16835,9 +17612,9 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -16848,11 +17625,11 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="11"/>
@@ -16865,9 +17642,9 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -16878,11 +17655,11 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="13"/>
@@ -16895,9 +17672,9 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -16908,11 +17685,11 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13"/>
@@ -16925,50 +17702,55 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="22">
+      <c r="B15" s="29"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="27">
         <v>2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="27">
         <v>3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="27">
         <v>4</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="27">
         <v>6</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="27">
         <v>7</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="B4:B16"/>
     <mergeCell ref="C4:C5"/>
@@ -16985,11 +17767,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17015,13 +17792,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4"/>
@@ -17034,9 +17811,9 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -17047,11 +17824,11 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
@@ -17064,9 +17841,9 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -17077,11 +17854,11 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="7"/>
@@ -17094,9 +17871,9 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -17107,11 +17884,11 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11"/>
@@ -17124,9 +17901,9 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -17137,11 +17914,11 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="13"/>
@@ -17154,9 +17931,9 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -17167,11 +17944,11 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
@@ -17184,46 +17961,46 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="27">
         <v>2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="27">
         <v>3</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="27">
         <v>4</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="27">
         <v>6</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="27">
         <v>7</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="19"/>
@@ -17233,6 +18010,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C4"/>
@@ -17249,11 +18031,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17278,13 +18055,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4"/>
@@ -17299,9 +18076,9 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -17314,11 +18091,11 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
@@ -17333,9 +18110,9 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -17348,11 +18125,11 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="7"/>
@@ -17367,9 +18144,9 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -17382,11 +18159,11 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11"/>
@@ -17401,9 +18178,9 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -17416,11 +18193,11 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="13"/>
@@ -17435,9 +18212,9 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -17450,11 +18227,11 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
@@ -17469,54 +18246,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22">
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="27">
         <v>2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="27">
         <v>3</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="27">
         <v>4</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="27">
         <v>6</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="27">
         <v>7</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="27">
         <v>8</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="27">
         <v>9</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="19"/>
@@ -17526,6 +18303,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C4"/>
@@ -17542,13 +18326,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
